--- a/WA Ports of Entry.xlsx
+++ b/WA Ports of Entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobsJ\source\repos\TravelerInformationCoreMap\packages\crossings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A792F53F-8B9E-4863-AAD8-BA75C08AFD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B851A9B4-19F3-4EAD-A75D-17174D0DB38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F93D79B-8AB1-49DA-A013-EDC40B9F24BF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="54" uniqueCount="38">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="33" uniqueCount="26">
   <si>
     <t>Port Name</t>
   </si>
@@ -51,106 +51,70 @@
     <t>Anacortes - 3010</t>
   </si>
   <si>
-    <t>1019 Q Ave.</t>
-  </si>
-  <si>
-    <t>Suite F</t>
-  </si>
-  <si>
-    <t>Anacortes, WA 98221</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Seattle</t>
   </si>
   <si>
     <t>Bellingham - 3005</t>
   </si>
   <si>
-    <t>4241 Mitchell Way #13</t>
-  </si>
-  <si>
-    <t>Bellingham, WA 98250</t>
-  </si>
-  <si>
     <t>Blaine, Washington - 3004</t>
   </si>
   <si>
-    <t>- -</t>
-  </si>
-  <si>
-    <t>9901 Pacific Highway</t>
-  </si>
-  <si>
-    <t>Blaine, WA 98230</t>
-  </si>
-  <si>
     <t>Friday Harbor - 3014</t>
   </si>
   <si>
-    <t>100 South First Street</t>
-  </si>
-  <si>
-    <t>Friday Harbor, WA 98250</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kenneth G Ward Port of Entry </t>
   </si>
   <si>
-    <t>9949 Guide Meridian St.</t>
-  </si>
-  <si>
-    <t>Lynden, WA 98264</t>
-  </si>
-  <si>
     <t>Longview, Washington - 2905</t>
   </si>
   <si>
-    <t>1450 Terminal Way</t>
-  </si>
-  <si>
-    <t>Longview, WA 98632</t>
-  </si>
-  <si>
     <t>Portland</t>
   </si>
   <si>
     <t>Oroville, WA, Washington - 3019</t>
   </si>
   <si>
-    <t>33643 Hwy 97</t>
-  </si>
-  <si>
-    <t>Oroville, WA 98844</t>
-  </si>
-  <si>
     <t>Seattle, Washington - 3001</t>
   </si>
   <si>
-    <t>17801 Pacific Highway S</t>
-  </si>
-  <si>
-    <t>Seattle, WA 98158-1249</t>
-  </si>
-  <si>
     <t>Sumas, Washington - 3009</t>
   </si>
   <si>
-    <t>103 Cherry Street</t>
-  </si>
-  <si>
-    <t>Sumas, WA 98295</t>
-  </si>
-  <si>
     <t>Tacoma, Washington, Washington - 3002</t>
   </si>
   <si>
-    <t>4813 Pacific Highway East</t>
-  </si>
-  <si>
-    <t>Fife, WA 98424</t>
+    <t>1019 Q Ave.,Suite F,Anacortes, WA 98221,United States</t>
+  </si>
+  <si>
+    <t>9901 Pacific Highway,Blaine, WA 98230,United States</t>
+  </si>
+  <si>
+    <t>9949 Guide Meridian St.,Lynden, WA 98264,United States,1450 Terminal Way</t>
+  </si>
+  <si>
+    <t>1450 Terminal Way,Longview, WA 98632,United States,33643 Hwy 97</t>
+  </si>
+  <si>
+    <t>33643 Hwy 97,Oroville, WA 98844,United States,17801 Pacific Highway S</t>
+  </si>
+  <si>
+    <t>17801 Pacific Highway S,Seattle, WA 98158-1249,United States,103 Cherry Street</t>
+  </si>
+  <si>
+    <t>103 Cherry Street,Sumas, WA 98295,United States,4813 Pacific Highway East</t>
+  </si>
+  <si>
+    <t>4813 Pacific Highway East,Fife, WA 98424,United States,</t>
+  </si>
+  <si>
+    <t>4241 Mitchell Way #13,Bellingham, WA 98250,United States</t>
+  </si>
+  <si>
+    <t>100 South First Street, Friday Harbor, WA 98250, United States</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -225,7 +189,39 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -236,6 +232,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE6D271E-7748-4A06-B162-ACC2AFF9ADE7}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D11" xr:uid="{AE6D271E-7748-4A06-B162-ACC2AFF9ADE7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{473BAFB4-E0A4-4811-A201-75200A94B246}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{5BDE88BE-56D6-49B5-999D-4257B288172A}" name="Port Name" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{DE7D2D97-EDC8-446A-86FF-F2FF14ACF587}" name="Location Address" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{DA5A5A32-AA9D-458C-AE44-43DD2F21284F}" name="Field Operation Office" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,398 +544,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0843D27-4B60-422A-AD28-B2D8477A667A}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D2:D33"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>3010</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>3005</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3004</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3014</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3023</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2905</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3019</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>3001</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3009</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>3002</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="5">
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C9:C12"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.cbp.gov/contact/ports/anacortes-3010" xr:uid="{ACF51664-7959-4046-98F1-98C406DDF3DF}"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{67960DA8-5A61-4120-A467-1081B1D1CB53}"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.cbp.gov/contact/ports/bellingham-3005" xr:uid="{8009207A-B5F8-479E-8C7B-D2A23286D8BF}"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{A16E4FB5-5871-49B1-AFE7-FFAD7CBB6767}"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://www.cbp.gov/contact/ports/blaine" xr:uid="{6AF8F6A7-98B9-4F8F-9AFF-B4AA28D4EEE9}"/>
-    <hyperlink ref="C9" r:id="rId6" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{291B6526-F493-48F1-BF5C-5BDEA9C387DA}"/>
-    <hyperlink ref="A13" r:id="rId7" display="https://www.cbp.gov/contact/ports/friday-harbor-3014" xr:uid="{AB5FDFEB-2B95-4A62-934F-36767F93ABBE}"/>
-    <hyperlink ref="C13" r:id="rId8" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{F6AD358F-D6A3-4A79-9933-09CD1C420A6F}"/>
-    <hyperlink ref="A16" r:id="rId9" display="https://www.cbp.gov/contact/ports/kenneth-g-ward-port-entry" xr:uid="{1FCED890-96DB-417C-8254-A7D839BC19C2}"/>
-    <hyperlink ref="C16" r:id="rId10" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{75149C93-61EC-4C7C-9EC8-53E5B56A5923}"/>
-    <hyperlink ref="A19" r:id="rId11" display="https://www.cbp.gov/contact/ports/longview-washington-2905" xr:uid="{CEA5C404-0E0C-4114-BCB8-56DD532EFFFA}"/>
-    <hyperlink ref="C19" r:id="rId12" display="https://www.cbp.gov/contact/ports/field-office/portland" xr:uid="{DA8C8A6B-92E6-4BDA-90FA-68CA3E5A8B4E}"/>
-    <hyperlink ref="A22" r:id="rId13" display="https://www.cbp.gov/contact/ports/oroville-wa-washington-3019" xr:uid="{255EAFEC-F00F-4745-B2C5-DA1A1C6B666F}"/>
-    <hyperlink ref="C22" r:id="rId14" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{F7AC770D-775C-4180-A332-4A5DAD00F5DF}"/>
-    <hyperlink ref="A25" r:id="rId15" display="https://www.cbp.gov/contact/ports/seattle" xr:uid="{91A58B34-FC6D-41C9-99C3-935535966182}"/>
-    <hyperlink ref="C25" r:id="rId16" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{0657635D-AD5A-4418-A78B-FB7302F0C69D}"/>
-    <hyperlink ref="A28" r:id="rId17" display="https://www.cbp.gov/contact/ports/sumas" xr:uid="{9328A003-043C-493F-841C-99D63F320D80}"/>
-    <hyperlink ref="A31" r:id="rId18" display="https://www.cbp.gov/contact/ports/tacoma-washington-washington-3002" xr:uid="{BD09AD02-6C6C-4FD1-98B1-E3820067321A}"/>
-    <hyperlink ref="C31" r:id="rId19" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{E1AE6AFF-D281-4B4D-A492-BA373421C12A}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbp.gov/contact/ports/anacortes-3010" xr:uid="{ACF51664-7959-4046-98F1-98C406DDF3DF}"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{67960DA8-5A61-4120-A467-1081B1D1CB53}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.cbp.gov/contact/ports/bellingham-3005" xr:uid="{8009207A-B5F8-479E-8C7B-D2A23286D8BF}"/>
+    <hyperlink ref="D3" r:id="rId4" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{A16E4FB5-5871-49B1-AFE7-FFAD7CBB6767}"/>
+    <hyperlink ref="B4" r:id="rId5" display="https://www.cbp.gov/contact/ports/blaine" xr:uid="{6AF8F6A7-98B9-4F8F-9AFF-B4AA28D4EEE9}"/>
+    <hyperlink ref="D4" r:id="rId6" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{291B6526-F493-48F1-BF5C-5BDEA9C387DA}"/>
+    <hyperlink ref="B5" r:id="rId7" display="https://www.cbp.gov/contact/ports/friday-harbor-3014" xr:uid="{AB5FDFEB-2B95-4A62-934F-36767F93ABBE}"/>
+    <hyperlink ref="D5" r:id="rId8" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{F6AD358F-D6A3-4A79-9933-09CD1C420A6F}"/>
+    <hyperlink ref="B6" r:id="rId9" display="https://www.cbp.gov/contact/ports/kenneth-g-ward-port-entry" xr:uid="{1FCED890-96DB-417C-8254-A7D839BC19C2}"/>
+    <hyperlink ref="D6" r:id="rId10" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{75149C93-61EC-4C7C-9EC8-53E5B56A5923}"/>
+    <hyperlink ref="B7" r:id="rId11" display="https://www.cbp.gov/contact/ports/longview-washington-2905" xr:uid="{CEA5C404-0E0C-4114-BCB8-56DD532EFFFA}"/>
+    <hyperlink ref="D7" r:id="rId12" display="https://www.cbp.gov/contact/ports/field-office/portland" xr:uid="{DA8C8A6B-92E6-4BDA-90FA-68CA3E5A8B4E}"/>
+    <hyperlink ref="B8" r:id="rId13" display="https://www.cbp.gov/contact/ports/oroville-wa-washington-3019" xr:uid="{255EAFEC-F00F-4745-B2C5-DA1A1C6B666F}"/>
+    <hyperlink ref="D8" r:id="rId14" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{F7AC770D-775C-4180-A332-4A5DAD00F5DF}"/>
+    <hyperlink ref="B9" r:id="rId15" display="https://www.cbp.gov/contact/ports/seattle" xr:uid="{91A58B34-FC6D-41C9-99C3-935535966182}"/>
+    <hyperlink ref="D9" r:id="rId16" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{0657635D-AD5A-4418-A78B-FB7302F0C69D}"/>
+    <hyperlink ref="B10" r:id="rId17" display="https://www.cbp.gov/contact/ports/sumas" xr:uid="{9328A003-043C-493F-841C-99D63F320D80}"/>
+    <hyperlink ref="B11" r:id="rId18" display="https://www.cbp.gov/contact/ports/tacoma-washington-washington-3002" xr:uid="{BD09AD02-6C6C-4FD1-98B1-E3820067321A}"/>
+    <hyperlink ref="D11" r:id="rId19" display="https://www.cbp.gov/contact/ports/field-office/seattle" xr:uid="{E1AE6AFF-D281-4B4D-A492-BA373421C12A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId20"/>
+  </tableParts>
 </worksheet>
 </file>